--- a/dataframe_each_make_xlsx_file/df_lincoln_updated.xlsx
+++ b/dataframe_each_make_xlsx_file/df_lincoln_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Focus (Push To Start)</t>
+          <t>Focus (Keyed Ignition)</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Taurus (Keyed Ignition)</t>
+          <t>Focus (Push To Start)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Taurus (Push To Start)</t>
+          <t>Taurus (Keyed Ignition)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10051,43 +10051,43 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Mark VIII</t>
+          <t>Taurus (Push To Start)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type D </t>
+          <t>PATS Type C</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Steering Column Ignition Lock Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="B293" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -10096,28 +10096,28 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Mark VIII</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type D </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Steering Column Ignition Lock Module</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B294" t="n">
         <v>1998</v>
@@ -10129,28 +10129,28 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Mark VIII</t>
+          <t>Continental</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type D </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Steering Column Ignition Lock Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B295" t="n">
         <v>1998</v>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>Mark VIII</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10172,18 +10172,18 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type A </t>
+          <t xml:space="preserve">PATS Type D </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Stand Alone PATS Module</t>
+          <t>Steering Column Ignition Lock Module</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B296" t="n">
         <v>1998</v>
@@ -10195,31 +10195,31 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type A </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Stand Alone PATS Module</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="B297" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -10249,7 +10249,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B298" t="n">
         <v>1999</v>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>Continental</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -10282,7 +10282,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B299" t="n">
         <v>1999</v>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -10315,10 +10315,10 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="B300" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10348,7 +10348,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B301" t="n">
         <v>2000</v>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Continental</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10381,7 +10381,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B302" t="n">
         <v>2000</v>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10414,7 +10414,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B303" t="n">
         <v>2000</v>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10447,10 +10447,10 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>748</v>
+        <v>596</v>
       </c>
       <c r="B304" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10480,7 +10480,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B305" t="n">
         <v>2001</v>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Continental</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10513,7 +10513,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B306" t="n">
         <v>2001</v>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10546,7 +10546,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B307" t="n">
         <v>2001</v>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10579,10 +10579,10 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>912</v>
+        <v>751</v>
       </c>
       <c r="B308" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Blackwood</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10612,7 +10612,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B309" t="n">
         <v>2002</v>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Blackwood</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10645,7 +10645,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B310" t="n">
         <v>2002</v>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Continental</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10678,7 +10678,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B311" t="n">
         <v>2002</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10711,7 +10711,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B312" t="n">
         <v>2002</v>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10744,10 +10744,10 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>1092</v>
+        <v>916</v>
       </c>
       <c r="B313" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -10756,28 +10756,28 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Aviator</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B314" t="n">
         <v>2003</v>
@@ -10789,28 +10789,28 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Blackwood</t>
+          <t>Aviator</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B315" t="n">
         <v>2003</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Blackwood</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10843,7 +10843,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B316" t="n">
         <v>2003</v>
@@ -10855,28 +10855,28 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B317" t="n">
         <v>2003</v>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10909,10 +10909,10 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>1281</v>
+        <v>1096</v>
       </c>
       <c r="B318" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Aviator</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10942,7 +10942,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B319" t="n">
         <v>2004</v>
@@ -10954,28 +10954,28 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Aviator</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B320" t="n">
         <v>2004</v>
@@ -10987,28 +10987,28 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B321" t="n">
         <v>2004</v>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -11041,10 +11041,10 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>1476</v>
+        <v>1284</v>
       </c>
       <c r="B322" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Aviator</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -11074,7 +11074,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B323" t="n">
         <v>2005</v>
@@ -11086,28 +11086,28 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Aviator</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B324" t="n">
         <v>2005</v>
@@ -11119,28 +11119,28 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B325" t="n">
         <v>2005</v>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -11173,10 +11173,10 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>1663</v>
+        <v>1479</v>
       </c>
       <c r="B326" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -11185,28 +11185,28 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B327" t="n">
         <v>2006</v>
@@ -11218,28 +11218,28 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Mark LT</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B328" t="n">
         <v>2006</v>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>Mark LT</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -11272,7 +11272,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B329" t="n">
         <v>2006</v>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -11305,7 +11305,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B330" t="n">
         <v>2006</v>
@@ -11317,31 +11317,31 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Zephyr</t>
+          <t>Town Car</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>1892</v>
+        <v>1667</v>
       </c>
       <c r="B331" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Zephyr</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11371,7 +11371,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B332" t="n">
         <v>2007</v>
@@ -11383,28 +11383,28 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Mark LT</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B333" t="n">
         <v>2007</v>
@@ -11416,28 +11416,28 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>Mark LT</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B334" t="n">
         <v>2007</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11470,7 +11470,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B335" t="n">
         <v>2007</v>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11503,7 +11503,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B336" t="n">
         <v>2007</v>
@@ -11515,31 +11515,31 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>2135</v>
+        <v>1897</v>
       </c>
       <c r="B337" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -11548,20 +11548,28 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr"/>
+          <t>Town Car</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Parameter Reset Not Required</t>
+        </is>
+      </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>New in 2009</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr"/>
+          <t xml:space="preserve">PATS Type E </t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Powertrain Control Module</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B338" t="n">
         <v>2008</v>
@@ -11573,28 +11581,20 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Mark LT</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>Parameter Reset Not Required</t>
-        </is>
-      </c>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>Powertrain Control Module</t>
-        </is>
-      </c>
+          <t>New in 2009</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B339" t="n">
         <v>2008</v>
@@ -11606,28 +11606,28 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>Mark LT</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Parameter Reset Required</t>
+          <t>Parameter Reset Not Required</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type E </t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Powertrain Control Module</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B340" t="n">
         <v>2008</v>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11660,7 +11660,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B341" t="n">
         <v>2008</v>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11693,7 +11693,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B342" t="n">
         <v>2008</v>
@@ -11705,31 +11705,31 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>2383</v>
+        <v>2140</v>
       </c>
       <c r="B343" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -11738,20 +11738,28 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
+          <t>Town Car</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Parameter Reset Not Required</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>New in 2010</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr"/>
+          <t xml:space="preserve">PATS Type E </t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Powertrain Control Module</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B344" t="n">
         <v>2009</v>
@@ -11763,62 +11771,54 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
+          <t>MKT</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>New in 2010</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>MKS</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
         <is>
           <t xml:space="preserve">Keyed Ignition: PATS Type C </t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>Instrument Cluster)
 Push To Start: PATS Type C (Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>2385</v>
-      </c>
-      <c r="B345" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>MKX</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATS Type C </t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>Instrument Cluster</t>
-        </is>
-      </c>
-    </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B346" t="n">
         <v>2009</v>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11851,7 +11851,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B347" t="n">
         <v>2009</v>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11884,7 +11884,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B348" t="n">
         <v>2009</v>
@@ -11896,95 +11896,95 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Town Car</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Parameter Reset Not Required</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PATS Type E </t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Powertrain Control Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
         <v>2630</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B350" t="n">
         <v>2010</v>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>Lincoln</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
+      <c r="D350" t="inlineStr">
         <is>
           <t>MKS</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
         <is>
           <t xml:space="preserve">Keyed Ignition: PATS Type C </t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>Instrument Cluster)
 Push To Start: PATS Type C (Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>2631</v>
-      </c>
-      <c r="B350" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATS Type C </t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
-        </is>
-      </c>
-    </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B351" t="n">
         <v>2010</v>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -12011,13 +12011,13 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B352" t="n">
         <v>2010</v>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -12050,7 +12050,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B353" t="n">
         <v>2010</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -12083,7 +12083,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B354" t="n">
         <v>2010</v>
@@ -12095,95 +12095,95 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
+        <v>2635</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Town Car</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Parameter Reset Not Required</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PATS Type E </t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Powertrain Control Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
         <v>2862</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B356" t="n">
         <v>2011</v>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="C356" t="inlineStr">
         <is>
           <t>Lincoln</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
+      <c r="D356" t="inlineStr">
         <is>
           <t>MKS</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
         <is>
           <t xml:space="preserve">Keyed Ignition: PATS Type C </t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
+      <c r="G356" t="inlineStr">
         <is>
           <t>Instrument Cluster)
 Push To Start: PATS Type C (Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>2863</v>
-      </c>
-      <c r="B356" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATS Type C </t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
-        </is>
-      </c>
-    </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B357" t="n">
         <v>2011</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -12216,7 +12216,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B358" t="n">
         <v>2011</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -12243,13 +12243,13 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B359" t="n">
         <v>2011</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -12282,7 +12282,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B360" t="n">
         <v>2011</v>
@@ -12294,95 +12294,95 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Town Car</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Parameter Reset Not Required</t>
+          <t>Parameter Reset Required</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type E </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>Powertrain Control Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
+        <v>2867</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Town Car</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Parameter Reset Not Required</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PATS Type E </t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Powertrain Control Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
         <v>3098</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B362" t="n">
         <v>2012</v>
       </c>
-      <c r="C361" t="inlineStr">
+      <c r="C362" t="inlineStr">
         <is>
           <t>Lincoln</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
+      <c r="D362" t="inlineStr">
         <is>
           <t>MKS</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
         <is>
           <t xml:space="preserve">Keyed Ignition: PATS Type C </t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
+      <c r="G362" t="inlineStr">
         <is>
           <t>Instrument Cluster)
 Push To Start: PATS Type C (Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>3099</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATS Type C </t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
-        </is>
-      </c>
-    </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="B363" t="n">
         <v>2012</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -12415,7 +12415,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="B364" t="n">
         <v>2012</v>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>MKZ</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -12442,13 +12442,13 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B365" t="n">
         <v>2012</v>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12481,10 +12481,10 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>3332</v>
+        <v>3102</v>
       </c>
       <c r="B366" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>MKS</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -12508,13 +12508,13 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B367" t="n">
         <v>2013</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>MKT</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -12547,7 +12547,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B368" t="n">
         <v>2013</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>MKX</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -12580,7 +12580,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B369" t="n">
         <v>2013</v>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>MKZ (Push to Start)</t>
+          <t>MKX</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -12602,18 +12602,18 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type B </t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>Body Control Module</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B370" t="n">
         <v>2013</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Navigator</t>
+          <t>MKZ (Push to Start)</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -12635,21 +12635,21 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">PATS Type C </t>
+          <t xml:space="preserve">PATS Type B </t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Body Control Module</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>79</v>
+        <v>3336</v>
       </c>
       <c r="B371" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>MKS (Keyed Ignition)</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>PATS Type C</t>
+          <t xml:space="preserve">PATS Type C </t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -12679,7 +12679,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B372" t="n">
         <v>2009</v>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>MKS (Push To Start)</t>
+          <t>MKS (Keyed Ignition)</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -12706,16 +12706,16 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B373" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>MKS (Keyed Ignition)</t>
+          <t>MKS (Push To Start)</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -12739,13 +12739,13 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B374" t="n">
         <v>2010</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>MKS (Push To Start)</t>
+          <t>MKS (Keyed Ignition)</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -12772,16 +12772,16 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B375" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>MKS (Keyed Ignition)</t>
+          <t>MKS (Push To Start)</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -12805,13 +12805,13 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B376" t="n">
         <v>2011</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>MKS (Push To Start)</t>
+          <t>MKS (Keyed Ignition)</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12838,16 +12838,16 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Remote Function Actuator / Keyless Vehicle Module</t>
+          <t>Instrument Cluster</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B377" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>MKS (Keyed Ignition)</t>
+          <t>MKS (Push To Start)</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -12871,13 +12871,13 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Instrument Cluster</t>
+          <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B378" t="n">
         <v>2012</v>
@@ -12889,20 +12889,53 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
+          <t>MKS (Keyed Ignition)</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>PATS Type C</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Instrument Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
           <t>MKS (Push To Start)</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>Parameter Reset Required</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Parameter Reset Required</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
         <is>
           <t>PATS Type C</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr">
+      <c r="G379" t="inlineStr">
         <is>
           <t>Remote Function Actuator / Keyless Vehicle Module</t>
         </is>
